--- a/results/output_2018_processed.xlsx
+++ b/results/output_2018_processed.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sync\code\python\ti_player_age\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sync\code\python\ti_player_age\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -1110,13 +1110,7 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy/m/d;@"/>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <numFmt numFmtId="164" formatCode="yyyy/m/d;@"/>
     </dxf>
@@ -1715,7 +1709,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0" sortType="ascending" defaultSubtotal="0">
@@ -1771,10 +1765,10 @@
     <dataField name="平均值项:DOB" fld="3" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="3">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2052,17 +2046,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="46.28515625" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="45" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:7">
@@ -2273,12 +2267,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D91"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2298,44 +2293,44 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>36275</v>
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>35677</v>
+        <v>84</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="D4" s="1">
-        <v>33785</v>
+        <v>36459</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2343,83 +2338,83 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>34317</v>
+        <v>36275</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="D6" s="1">
-        <v>33092</v>
+        <v>36060</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="D7" s="1">
-        <v>34761</v>
+        <v>35673</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1">
-        <v>35601</v>
+        <v>35527</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="D9" s="1">
-        <v>34719</v>
+        <v>35247</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
+        <v>31</v>
+      </c>
+      <c r="D10" s="1">
+        <v>35243</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2427,335 +2422,335 @@
         <v>6</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1">
-        <v>33905</v>
+        <v>34761</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D12" s="1">
-        <v>35527</v>
+        <v>34443</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="D13" s="1">
-        <v>35049</v>
+        <v>34353</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D14" s="1">
-        <v>36023</v>
+        <v>34323</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D15" s="1">
-        <v>34742</v>
+        <v>33941</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="D16" s="1">
-        <v>35704</v>
+        <v>33866</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="D17" s="1">
-        <v>34353</v>
+        <v>33553</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="D18" s="1">
-        <v>35219</v>
+        <v>33421</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D19" s="1">
-        <v>34024</v>
+        <v>33204</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="1">
-        <v>34624</v>
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="1">
-        <v>32938</v>
+        <v>50</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="1">
-        <v>33204</v>
+        <v>61</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="1">
-        <v>34742</v>
+        <v>117</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="D24" s="1">
-        <v>33041</v>
+        <v>36740</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="D25" s="1">
-        <v>36060</v>
+        <v>36545</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="D26" s="1">
-        <v>33634</v>
+        <v>36393</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="D27" s="1">
-        <v>35243</v>
+        <v>36204</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" t="s">
-        <v>11</v>
+        <v>2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>35677</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D29" s="1">
-        <v>35040</v>
+        <v>35601</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="D30" s="1">
-        <v>32867</v>
+        <v>35533</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D31" s="1">
-        <v>32526</v>
+        <v>35426</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="D32" s="1">
-        <v>34443</v>
+        <v>35310</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D33" s="1">
-        <v>34929</v>
+        <v>35219</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" t="s">
-        <v>11</v>
+        <v>114</v>
+      </c>
+      <c r="D34" s="1">
+        <v>35049</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2763,80 +2758,80 @@
         <v>36</v>
       </c>
       <c r="B35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D35" s="1">
-        <v>33915</v>
+        <v>34929</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="B36">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="D36" s="1">
-        <v>33640</v>
+        <v>34764</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D37" s="1">
-        <v>34323</v>
+        <v>34742</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>44</v>
-      </c>
-      <c r="D38" s="1">
-        <v>35426</v>
+        <v>39</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B39">
         <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>45</v>
-      </c>
-      <c r="D39" s="1">
-        <v>35384</v>
+        <v>57</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D40" t="s">
         <v>11</v>
@@ -2844,223 +2839,223 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="B41">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>47</v>
-      </c>
-      <c r="D41" s="1">
-        <v>33057</v>
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="D42" s="1">
-        <v>36459</v>
+        <v>36023</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="B43">
-        <v>2</v>
-      </c>
-      <c r="C43" t="s">
-        <v>50</v>
-      </c>
-      <c r="D43" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>33</v>
+      </c>
+      <c r="D43" s="1">
+        <v>35537</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D44" s="1">
-        <v>33735</v>
+        <v>35384</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D45" s="1">
-        <v>33731</v>
+        <v>35040</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="B46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="D46" s="1">
-        <v>34250</v>
+        <v>34822</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D47" s="1">
-        <v>33941</v>
+        <v>34719</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="B48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="D48" s="1">
-        <v>35533</v>
+        <v>34687</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="B49">
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>57</v>
-      </c>
-      <c r="D49" t="s">
-        <v>11</v>
+        <v>80</v>
+      </c>
+      <c r="D49" s="1">
+        <v>34680</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="D50" s="1">
-        <v>34153</v>
+        <v>34024</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C51" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="D51" s="1">
-        <v>33303</v>
+        <v>33785</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C52" t="s">
-        <v>60</v>
-      </c>
-      <c r="D52" t="s">
-        <v>11</v>
+        <v>51</v>
+      </c>
+      <c r="D52" s="1">
+        <v>33735</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>61</v>
-      </c>
-      <c r="D53" t="s">
-        <v>11</v>
+        <v>91</v>
+      </c>
+      <c r="D53" s="1">
+        <v>33695</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B54">
         <v>3</v>
       </c>
       <c r="C54" t="s">
-        <v>62</v>
-      </c>
-      <c r="D54" t="s">
-        <v>11</v>
+        <v>27</v>
+      </c>
+      <c r="D54" s="1">
+        <v>33041</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>63</v>
-      </c>
-      <c r="D55" t="s">
-        <v>11</v>
+        <v>74</v>
+      </c>
+      <c r="D55" s="1">
+        <v>32792</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="B56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
         <v>11</v>
@@ -3068,41 +3063,41 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>66</v>
-      </c>
-      <c r="D57" s="1">
-        <v>33553</v>
+        <v>46</v>
+      </c>
+      <c r="D57" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>67</v>
-      </c>
-      <c r="D58" s="1">
-        <v>36393</v>
+        <v>63</v>
+      </c>
+      <c r="D58" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="B59">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C59" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="D59" t="s">
         <v>11</v>
@@ -3110,86 +3105,86 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="B60">
         <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="D60" s="1">
-        <v>35436</v>
+        <v>36060</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="B61">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="D61" s="1">
-        <v>34077</v>
+        <v>35647</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D62" s="1">
-        <v>33421</v>
+        <v>35615</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D63" s="1">
-        <v>36740</v>
+        <v>35436</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="B64">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="D64" s="1">
-        <v>32792</v>
+        <v>35259</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="B65">
         <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="D65" s="1">
-        <v>34644</v>
+        <v>34742</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3197,136 +3192,136 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>76</v>
-      </c>
-      <c r="D66" t="s">
-        <v>11</v>
+        <v>75</v>
+      </c>
+      <c r="D66" s="1">
+        <v>34644</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C67" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="D67" s="1">
-        <v>36060</v>
+        <v>34624</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="B68">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C68" t="s">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="D68" s="1">
-        <v>36545</v>
+        <v>34317</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="B69">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="D69" s="1">
-        <v>34680</v>
+        <v>34153</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="B70">
         <v>4</v>
       </c>
       <c r="C70" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="D70" s="1">
-        <v>35615</v>
+        <v>33915</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="B71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C71" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="D71" s="1">
-        <v>35329</v>
+        <v>33731</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C72" t="s">
-        <v>84</v>
-      </c>
-      <c r="D72" t="s">
-        <v>11</v>
+        <v>102</v>
+      </c>
+      <c r="D72" s="1">
+        <v>33605</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="B73">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C73" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="D73" s="1">
-        <v>35310</v>
+        <v>32867</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="B74">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
-        <v>86</v>
-      </c>
-      <c r="D74" s="1">
-        <v>34822</v>
+        <v>64</v>
+      </c>
+      <c r="D74" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B75">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D75" t="s">
         <v>11</v>
@@ -3348,128 +3343,128 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D77" s="1">
-        <v>35247</v>
+        <v>36746</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="B78">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="D78" s="1">
-        <v>36204</v>
+        <v>35704</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B79">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D79" s="1">
-        <v>33695</v>
+        <v>35329</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="B80">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C80" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="D80" s="1">
-        <v>35259</v>
+        <v>34250</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="B81">
         <v>5</v>
       </c>
       <c r="C81" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="D81" s="1">
-        <v>34037</v>
+        <v>34077</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D82" s="1">
-        <v>33866</v>
+        <v>34037</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="B83">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
-        <v>117</v>
-      </c>
-      <c r="D83" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="D83" s="1">
+        <v>33905</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="B84">
-        <v>3</v>
-      </c>
-      <c r="C84">
-        <v>33</v>
+        <v>5</v>
+      </c>
+      <c r="C84" t="s">
+        <v>41</v>
       </c>
       <c r="D84" s="1">
-        <v>35537</v>
+        <v>33640</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="B85">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C85" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="D85" s="1">
-        <v>35647</v>
+        <v>33634</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3488,77 +3483,78 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="D87" s="1">
-        <v>35673</v>
+        <v>33303</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="B88">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C88" t="s">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="D88" s="1">
-        <v>34764</v>
+        <v>33092</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="B89">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C89" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="D89" s="1">
-        <v>34687</v>
+        <v>33057</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="B90">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="D90" s="1">
-        <v>33605</v>
+        <v>32938</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="B91">
         <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="D91" s="1">
-        <v>36746</v>
+        <v>32526</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D87">
-    <sortCondition ref="D2"/>
+  <sortState ref="A2:D91">
+    <sortCondition ref="B2:B91"/>
+    <sortCondition descending="1" ref="D2:D91"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
